--- a/live-service/src/main/resources/doc/soDetail.xlsx
+++ b/live-service/src/main/resources/doc/soDetail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>{{shopName}}数据统计</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>统计：交易{{rowSize}}笔、应收款{{totalAcAmount}}元，服务费{{totalService}}元，实收款{{totalReAmount}}元</t>
+  </si>
+  <si>
+    <t>* 统计中的服务费不包括单个现金券的核销</t>
   </si>
   <si>
     <t>序号</t>
@@ -78,12 +81,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +112,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -130,21 +141,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -154,68 +255,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,61 +285,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,31 +301,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,13 +421,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,97 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,30 +487,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -481,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -490,11 +507,96 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,9 +604,101 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.15"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.15"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.25"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.15"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,70 +717,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,155 +740,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,24 +905,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1098,13 +1293,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="36.5" customWidth="1"/>
@@ -1164,149 +1359,160 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" ht="17.4" spans="1:8">
-      <c r="A12" s="5" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="1:9">
+      <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" ht="17.4" spans="1:8">
+      <c r="A13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="B13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="E13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="F13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="G13" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" ht="20.4" spans="1:8">
-      <c r="A13" s="6" t="s">
+      <c r="H13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="14" ht="20.4" spans="1:8">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="D14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="E14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="F14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="G14" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" ht="20.4" spans="1:8">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" ht="20.4" spans="1:8">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" ht="17.4" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="25"/>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="25"/>
+      <c r="J19" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="A1:H5"/>
     <mergeCell ref="A6:H7"/>
     <mergeCell ref="A8:H11"/>
